--- a/Data/Contacts_scenarios.xlsx
+++ b/Data/Contacts_scenarios.xlsx
@@ -375,12 +375,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>C.bal</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>C.imbal</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>C.bal</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -432,10 +432,10 @@
         </is>
       </c>
       <c r="D3">
+        <v>7762944.517025</v>
+      </c>
+      <c r="E3">
         <v>11994577.08296</v>
-      </c>
-      <c r="E3">
-        <v>7762944.517025</v>
       </c>
       <c r="F3">
         <v>1.545106635330777</v>
@@ -458,10 +458,10 @@
         </is>
       </c>
       <c r="D4">
+        <v>7762944.517025</v>
+      </c>
+      <c r="E4">
         <v>3531311.95109</v>
-      </c>
-      <c r="E4">
-        <v>7762944.517025</v>
       </c>
       <c r="F4">
         <v>0.4548933646692232</v>
@@ -536,10 +536,10 @@
         </is>
       </c>
       <c r="D7">
+        <v>644713.48766</v>
+      </c>
+      <c r="E7">
         <v>648831.8150599999</v>
-      </c>
-      <c r="E7">
-        <v>644713.48766</v>
       </c>
       <c r="F7">
         <v>1.006387841233084</v>
@@ -562,10 +562,10 @@
         </is>
       </c>
       <c r="D8">
+        <v>644713.48766</v>
+      </c>
+      <c r="E8">
         <v>640595.16026</v>
-      </c>
-      <c r="E8">
-        <v>644713.48766</v>
       </c>
       <c r="F8">
         <v>0.993612158766916</v>
@@ -640,10 +640,10 @@
         </is>
       </c>
       <c r="D11">
+        <v>7305341.49234</v>
+      </c>
+      <c r="E11">
         <v>3521223.71014</v>
-      </c>
-      <c r="E11">
-        <v>7305341.49234</v>
       </c>
       <c r="F11">
         <v>0.4820067225922528</v>
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="D12">
+        <v>7305341.49234</v>
+      </c>
+      <c r="E12">
         <v>11089459.27454</v>
-      </c>
-      <c r="E12">
-        <v>7305341.49234</v>
       </c>
       <c r="F12">
         <v>1.517993277407747</v>
